--- a/results/mp/logistic/corona/confidence/42/masking-0.1/avg_0.003_scores.xlsx
+++ b/results/mp/logistic/corona/confidence/42/masking-0.1/avg_0.003_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="77">
   <si>
     <t>anchor score</t>
   </si>
@@ -46,147 +46,150 @@
     <t>crisis</t>
   </si>
   <si>
+    <t>collapse</t>
+  </si>
+  <si>
+    <t>forced</t>
+  </si>
+  <si>
+    <t>fraud</t>
+  </si>
+  <si>
+    <t>died</t>
+  </si>
+  <si>
+    <t>die</t>
+  </si>
+  <si>
     <t>war</t>
   </si>
   <si>
-    <t>forced</t>
-  </si>
-  <si>
-    <t>die</t>
-  </si>
-  <si>
-    <t>fraud</t>
-  </si>
-  <si>
-    <t>collapse</t>
-  </si>
-  <si>
     <t>drop</t>
   </si>
   <si>
+    <t>sc</t>
+  </si>
+  <si>
     <t>fears</t>
   </si>
   <si>
+    <t>falling</t>
+  </si>
+  <si>
     <t>panic</t>
   </si>
   <si>
-    <t>sc</t>
-  </si>
-  <si>
     <t>low</t>
   </si>
   <si>
     <t>emergency</t>
   </si>
   <si>
+    <t>no</t>
+  </si>
+  <si>
+    <t>cut</t>
+  </si>
+  <si>
     <t>lower</t>
   </si>
   <si>
-    <t>no</t>
-  </si>
-  <si>
-    <t>avoid</t>
-  </si>
-  <si>
-    <t>cut</t>
+    <t>empty</t>
   </si>
   <si>
     <t>stop</t>
   </si>
   <si>
-    <t>empty</t>
-  </si>
-  <si>
     <t>demand</t>
   </si>
   <si>
+    <t>oil</t>
+  </si>
+  <si>
+    <t>co</t>
+  </si>
+  <si>
     <t>of</t>
   </si>
   <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>co</t>
-  </si>
-  <si>
-    <t>a</t>
+    <t>the</t>
+  </si>
+  <si>
+    <t>to</t>
   </si>
   <si>
     <t>.</t>
   </si>
   <si>
-    <t>the</t>
-  </si>
-  <si>
     <t>negative</t>
   </si>
   <si>
     <t>love</t>
   </si>
   <si>
+    <t>best</t>
+  </si>
+  <si>
     <t>free</t>
   </si>
   <si>
-    <t>best</t>
-  </si>
-  <si>
     <t>happy</t>
   </si>
   <si>
     <t>great</t>
   </si>
   <si>
+    <t>interesting</t>
+  </si>
+  <si>
     <t>hand</t>
   </si>
   <si>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>won</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>nice</t>
+  </si>
+  <si>
     <t>special</t>
   </si>
   <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
     <t>thanks</t>
   </si>
   <si>
-    <t>interesting</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
     <t>safe</t>
   </si>
   <si>
-    <t>heroes</t>
+    <t>friends</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>better</t>
   </si>
   <si>
     <t>join</t>
   </si>
   <si>
-    <t>won</t>
-  </si>
-  <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>friends</t>
-  </si>
-  <si>
     <t>gt</t>
   </si>
   <si>
@@ -196,40 +199,43 @@
     <t>like</t>
   </si>
   <si>
+    <t>giving</t>
+  </si>
+  <si>
     <t>please</t>
   </si>
   <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>relief</t>
+  </si>
+  <si>
+    <t>hope</t>
+  </si>
+  <si>
     <t>help</t>
   </si>
   <si>
-    <t>hope</t>
-  </si>
-  <si>
-    <t>giving</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>relief</t>
-  </si>
-  <si>
     <t>share</t>
   </si>
   <si>
     <t>care</t>
   </si>
   <si>
+    <t>important</t>
+  </si>
+  <si>
     <t>alert</t>
   </si>
   <si>
     <t>safety</t>
   </si>
   <si>
+    <t>increase</t>
+  </si>
+  <si>
     <t>protect</t>
-  </si>
-  <si>
-    <t>increase</t>
   </si>
   <si>
     <t>you</t>
@@ -596,7 +602,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q43"/>
+  <dimension ref="A1:Q45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -604,10 +610,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -686,7 +692,7 @@
         <v>6</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K3">
         <v>0.9347826086956522</v>
@@ -715,13 +721,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.8184931506849316</v>
+        <v>0.8116438356164384</v>
       </c>
       <c r="C4">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="D4">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -733,19 +739,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K4">
-        <v>0.925</v>
+        <v>0.9322033898305084</v>
       </c>
       <c r="L4">
-        <v>111</v>
+        <v>55</v>
       </c>
       <c r="M4">
-        <v>111</v>
+        <v>55</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -757,7 +763,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -765,13 +771,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.7894736842105263</v>
+        <v>0.7666666666666667</v>
       </c>
       <c r="C5">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="D5">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -783,19 +789,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K5">
-        <v>0.8983050847457628</v>
+        <v>0.9166666666666666</v>
       </c>
       <c r="L5">
-        <v>53</v>
+        <v>110</v>
       </c>
       <c r="M5">
-        <v>53</v>
+        <v>110</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -807,7 +813,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -836,7 +842,7 @@
         <v>7</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K6">
         <v>0.8846153846153846</v>
@@ -865,13 +871,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.7567567567567568</v>
+        <v>0.75</v>
       </c>
       <c r="C7">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D7">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -886,16 +892,16 @@
         <v>9</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K7">
-        <v>0.8571428571428571</v>
+        <v>0.8660714285714286</v>
       </c>
       <c r="L7">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="M7">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -907,7 +913,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -915,13 +921,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.75</v>
+        <v>0.7307692307692307</v>
       </c>
       <c r="C8">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="D8">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -933,19 +939,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K8">
-        <v>0.8381201044386423</v>
+        <v>0.8484848484848485</v>
       </c>
       <c r="L8">
-        <v>321</v>
+        <v>28</v>
       </c>
       <c r="M8">
-        <v>321</v>
+        <v>28</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -957,7 +963,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>62</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -965,13 +971,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.7</v>
+        <v>0.7297297297297297</v>
       </c>
       <c r="C9">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="D9">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -983,19 +989,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K9">
-        <v>0.8333333333333334</v>
+        <v>0.8198433420365535</v>
       </c>
       <c r="L9">
-        <v>30</v>
+        <v>314</v>
       </c>
       <c r="M9">
-        <v>30</v>
+        <v>314</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1007,7 +1013,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>6</v>
+        <v>69</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1015,13 +1021,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.576271186440678</v>
+        <v>0.7105263157894737</v>
       </c>
       <c r="C10">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="D10">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1033,19 +1039,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K10">
-        <v>0.8113207547169812</v>
+        <v>0.8085106382978723</v>
       </c>
       <c r="L10">
-        <v>86</v>
+        <v>38</v>
       </c>
       <c r="M10">
-        <v>86</v>
+        <v>38</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1057,7 +1063,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>20</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1065,13 +1071,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.5490196078431373</v>
+        <v>0.5932203389830508</v>
       </c>
       <c r="C11">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="D11">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1083,19 +1089,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K11">
-        <v>0.8055555555555556</v>
+        <v>0.7948717948717948</v>
       </c>
       <c r="L11">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="M11">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1107,7 +1113,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1115,13 +1121,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.5251937984496124</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="C12">
-        <v>271</v>
+        <v>105</v>
       </c>
       <c r="D12">
-        <v>271</v>
+        <v>105</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1133,19 +1139,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>245</v>
+        <v>84</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K12">
-        <v>0.8048780487804879</v>
+        <v>0.79375</v>
       </c>
       <c r="L12">
-        <v>66</v>
+        <v>127</v>
       </c>
       <c r="M12">
-        <v>66</v>
+        <v>127</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1157,7 +1163,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1165,13 +1171,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.5238095238095238</v>
+        <v>0.5294117647058824</v>
       </c>
       <c r="C13">
-        <v>99</v>
+        <v>27</v>
       </c>
       <c r="D13">
-        <v>99</v>
+        <v>27</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1183,19 +1189,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>90</v>
+        <v>24</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K13">
-        <v>0.7878787878787878</v>
+        <v>0.7931034482758621</v>
       </c>
       <c r="L13">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="M13">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1207,7 +1213,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1215,13 +1221,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.4697986577181208</v>
+        <v>0.525</v>
       </c>
       <c r="C14">
-        <v>70</v>
+        <v>21</v>
       </c>
       <c r="D14">
-        <v>70</v>
+        <v>21</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1233,19 +1239,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>79</v>
+        <v>19</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K14">
-        <v>0.78125</v>
+        <v>0.7924528301886793</v>
       </c>
       <c r="L14">
-        <v>100</v>
+        <v>84</v>
       </c>
       <c r="M14">
-        <v>100</v>
+        <v>84</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1257,7 +1263,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>28</v>
+        <v>22</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1265,13 +1271,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.4266666666666667</v>
+        <v>0.5232558139534884</v>
       </c>
       <c r="C15">
-        <v>32</v>
+        <v>270</v>
       </c>
       <c r="D15">
-        <v>32</v>
+        <v>270</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1283,19 +1289,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>43</v>
+        <v>246</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K15">
-        <v>0.7777777777777778</v>
+        <v>0.78125</v>
       </c>
       <c r="L15">
-        <v>21</v>
+        <v>100</v>
       </c>
       <c r="M15">
-        <v>21</v>
+        <v>100</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1307,7 +1313,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>6</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1315,13 +1321,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.3928571428571428</v>
+        <v>0.4563758389261745</v>
       </c>
       <c r="C16">
-        <v>22</v>
+        <v>68</v>
       </c>
       <c r="D16">
-        <v>22</v>
+        <v>68</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1333,19 +1339,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>34</v>
+        <v>81</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K16">
-        <v>0.7758620689655172</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="L16">
-        <v>45</v>
+        <v>28</v>
       </c>
       <c r="M16">
-        <v>45</v>
+        <v>28</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1357,7 +1363,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1365,13 +1371,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.3861111111111111</v>
+        <v>0.4133333333333333</v>
       </c>
       <c r="C17">
-        <v>139</v>
+        <v>31</v>
       </c>
       <c r="D17">
-        <v>139</v>
+        <v>31</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1383,19 +1389,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>221</v>
+        <v>44</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K17">
-        <v>0.7625</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="L17">
-        <v>122</v>
+        <v>21</v>
       </c>
       <c r="M17">
-        <v>122</v>
+        <v>21</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1407,7 +1413,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>38</v>
+        <v>6</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1415,13 +1421,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.3636363636363636</v>
+        <v>0.3777777777777778</v>
       </c>
       <c r="C18">
-        <v>20</v>
+        <v>136</v>
       </c>
       <c r="D18">
-        <v>20</v>
+        <v>136</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1433,19 +1439,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>35</v>
+        <v>224</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K18">
-        <v>0.7605633802816901</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="L18">
-        <v>108</v>
+        <v>28</v>
       </c>
       <c r="M18">
-        <v>108</v>
+        <v>28</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1457,7 +1463,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>34</v>
+        <v>8</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1465,49 +1471,49 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.3454545454545455</v>
+        <v>0.3636363636363636</v>
       </c>
       <c r="C19">
+        <v>20</v>
+      </c>
+      <c r="D19">
+        <v>20</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19" t="b">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>35</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="K19">
+        <v>0.7682926829268293</v>
+      </c>
+      <c r="L19">
+        <v>63</v>
+      </c>
+      <c r="M19">
+        <v>63</v>
+      </c>
+      <c r="N19">
+        <v>1</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+      <c r="P19" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q19">
         <v>19</v>
-      </c>
-      <c r="D19">
-        <v>19</v>
-      </c>
-      <c r="E19">
-        <v>0</v>
-      </c>
-      <c r="F19">
-        <v>1</v>
-      </c>
-      <c r="G19" t="b">
-        <v>0</v>
-      </c>
-      <c r="H19">
-        <v>36</v>
-      </c>
-      <c r="J19" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="K19">
-        <v>0.7446808510638298</v>
-      </c>
-      <c r="L19">
-        <v>35</v>
-      </c>
-      <c r="M19">
-        <v>35</v>
-      </c>
-      <c r="N19">
-        <v>1</v>
-      </c>
-      <c r="O19">
-        <v>0</v>
-      </c>
-      <c r="P19" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q19">
-        <v>12</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1515,13 +1521,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.25</v>
+        <v>0.3392857142857143</v>
       </c>
       <c r="C20">
-        <v>63</v>
+        <v>19</v>
       </c>
       <c r="D20">
-        <v>63</v>
+        <v>19</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1533,19 +1539,19 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>189</v>
+        <v>37</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K20">
-        <v>0.7209302325581395</v>
+        <v>0.7605633802816901</v>
       </c>
       <c r="L20">
-        <v>31</v>
+        <v>108</v>
       </c>
       <c r="M20">
-        <v>31</v>
+        <v>108</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1557,7 +1563,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>12</v>
+        <v>34</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1565,13 +1571,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.2111111111111111</v>
+        <v>0.2777777777777778</v>
       </c>
       <c r="C21">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="D21">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1583,19 +1589,19 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K21">
-        <v>0.717948717948718</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L21">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="M21">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1607,7 +1613,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1615,13 +1621,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.1179624664879357</v>
+        <v>0.2222222222222222</v>
       </c>
       <c r="C22">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="D22">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1633,10 +1639,10 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>329</v>
+        <v>196</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K22">
         <v>0.7083333333333334</v>
@@ -1665,28 +1671,28 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.01052188552188552</v>
+        <v>0.1554959785522788</v>
       </c>
       <c r="C23">
-        <v>25</v>
+        <v>58</v>
       </c>
       <c r="D23">
-        <v>28</v>
+        <v>58</v>
       </c>
       <c r="E23">
-        <v>0.11</v>
+        <v>0</v>
       </c>
       <c r="F23">
-        <v>0.89</v>
+        <v>1</v>
       </c>
       <c r="G23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H23">
-        <v>2351</v>
+        <v>315</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K23">
         <v>0.6984126984126984</v>
@@ -1715,37 +1721,37 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.009354536950420954</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="C24">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D24">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E24">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="F24">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="G24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H24">
-        <v>2118</v>
+        <v>279</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K24">
-        <v>0.6785714285714286</v>
+        <v>0.6976744186046512</v>
       </c>
       <c r="L24">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="M24">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1757,7 +1763,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1765,28 +1771,28 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.009345794392523364</v>
+        <v>0.0103126007089913</v>
       </c>
       <c r="C25">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D25">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="E25">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="F25">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="G25" t="b">
         <v>1</v>
       </c>
       <c r="H25">
-        <v>3074</v>
+        <v>3071</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K25">
         <v>0.675</v>
@@ -1815,28 +1821,28 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.008250108554059922</v>
+        <v>0.008421052631578947</v>
       </c>
       <c r="C26">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D26">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E26">
-        <v>0.24</v>
+        <v>0.17</v>
       </c>
       <c r="F26">
-        <v>0.76</v>
+        <v>0.83</v>
       </c>
       <c r="G26" t="b">
         <v>1</v>
       </c>
       <c r="H26">
-        <v>2284</v>
+        <v>2355</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K26">
         <v>0.6571428571428571</v>
@@ -1865,37 +1871,37 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.00502209722780233</v>
+        <v>0.00602878257487359</v>
       </c>
       <c r="C27">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D27">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="E27">
-        <v>0.42</v>
+        <v>0.43</v>
       </c>
       <c r="F27">
-        <v>0.5800000000000001</v>
+        <v>0.5700000000000001</v>
       </c>
       <c r="G27" t="b">
         <v>1</v>
       </c>
       <c r="H27">
-        <v>4953</v>
+        <v>5111</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K27">
-        <v>0.638235294117647</v>
+        <v>0.6411764705882353</v>
       </c>
       <c r="L27">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="M27">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1907,7 +1913,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -1915,37 +1921,37 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.00388651379712398</v>
+        <v>0.005561993047508691</v>
       </c>
       <c r="C28">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D28">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E28">
-        <v>0.49</v>
+        <v>0.35</v>
       </c>
       <c r="F28">
-        <v>0.51</v>
+        <v>0.65</v>
       </c>
       <c r="G28" t="b">
         <v>1</v>
       </c>
       <c r="H28">
-        <v>5126</v>
+        <v>4291</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="K28">
-        <v>0.602510460251046</v>
+        <v>0.6363636363636364</v>
       </c>
       <c r="L28">
-        <v>144</v>
+        <v>21</v>
       </c>
       <c r="M28">
-        <v>144</v>
+        <v>21</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1957,21 +1963,45 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>95</v>
+        <v>12</v>
       </c>
     </row>
     <row r="29" spans="1:17">
+      <c r="A29" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B29">
+        <v>0.005430410297666935</v>
+      </c>
+      <c r="C29">
+        <v>27</v>
+      </c>
+      <c r="D29">
+        <v>51</v>
+      </c>
+      <c r="E29">
+        <v>0.47</v>
+      </c>
+      <c r="F29">
+        <v>0.53</v>
+      </c>
+      <c r="G29" t="b">
+        <v>1</v>
+      </c>
+      <c r="H29">
+        <v>4945</v>
+      </c>
       <c r="J29" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K29">
-        <v>0.5898305084745763</v>
+        <v>0.606694560669456</v>
       </c>
       <c r="L29">
-        <v>174</v>
+        <v>145</v>
       </c>
       <c r="M29">
-        <v>174</v>
+        <v>145</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1983,21 +2013,21 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>121</v>
+        <v>94</v>
       </c>
     </row>
     <row r="30" spans="1:17">
       <c r="J30" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K30">
-        <v>0.5846153846153846</v>
+        <v>0.6063829787234043</v>
       </c>
       <c r="L30">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="M30">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -2009,21 +2039,21 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>27</v>
+        <v>37</v>
       </c>
     </row>
     <row r="31" spans="1:17">
       <c r="J31" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="K31">
-        <v>0.5757575757575758</v>
+        <v>0.58</v>
       </c>
       <c r="L31">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="M31">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -2035,21 +2065,21 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>14</v>
+        <v>21</v>
       </c>
     </row>
     <row r="32" spans="1:17">
       <c r="J32" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="K32">
-        <v>0.574468085106383</v>
+        <v>0.5692307692307692</v>
       </c>
       <c r="L32">
-        <v>54</v>
+        <v>37</v>
       </c>
       <c r="M32">
-        <v>54</v>
+        <v>37</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -2061,21 +2091,21 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>40</v>
+        <v>28</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="K33">
-        <v>0.5600000000000001</v>
+        <v>0.5661016949152542</v>
       </c>
       <c r="L33">
-        <v>28</v>
+        <v>167</v>
       </c>
       <c r="M33">
-        <v>28</v>
+        <v>167</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -2087,21 +2117,21 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>22</v>
+        <v>128</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="K34">
-        <v>0.5285714285714286</v>
+        <v>0.5142857142857142</v>
       </c>
       <c r="L34">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="M34">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -2113,12 +2143,12 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="K35">
         <v>0.5056179775280899</v>
@@ -2144,16 +2174,16 @@
     </row>
     <row r="36" spans="10:17">
       <c r="J36" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K36">
-        <v>0.4523809523809524</v>
+        <v>0.4666666666666667</v>
       </c>
       <c r="L36">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="M36">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -2165,47 +2195,47 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="37" spans="10:17">
       <c r="J37" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="K37">
-        <v>0.4509803921568628</v>
+        <v>0.4523809523809524</v>
       </c>
       <c r="L37">
+        <v>19</v>
+      </c>
+      <c r="M37">
+        <v>19</v>
+      </c>
+      <c r="N37">
+        <v>1</v>
+      </c>
+      <c r="O37">
+        <v>0</v>
+      </c>
+      <c r="P37" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q37">
         <v>23</v>
-      </c>
-      <c r="M37">
-        <v>23</v>
-      </c>
-      <c r="N37">
-        <v>1</v>
-      </c>
-      <c r="O37">
-        <v>0</v>
-      </c>
-      <c r="P37" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q37">
-        <v>28</v>
       </c>
     </row>
     <row r="38" spans="10:17">
       <c r="J38" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K38">
-        <v>0.3424657534246575</v>
+        <v>0.4509803921568628</v>
       </c>
       <c r="L38">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="M38">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -2217,21 +2247,21 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>48</v>
+        <v>28</v>
       </c>
     </row>
     <row r="39" spans="10:17">
       <c r="J39" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="K39">
-        <v>0.2948717948717949</v>
+        <v>0.358974358974359</v>
       </c>
       <c r="L39">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="M39">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -2243,111 +2273,163 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="40" spans="10:17">
       <c r="J40" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K40">
-        <v>0.02838063439065109</v>
+        <v>0.3150684931506849</v>
       </c>
       <c r="L40">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="M40">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="N40">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O40">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q40">
-        <v>1164</v>
+        <v>50</v>
       </c>
     </row>
     <row r="41" spans="10:17">
       <c r="J41" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="K41">
-        <v>0.00938790837401427</v>
+        <v>0.02759197324414716</v>
       </c>
       <c r="L41">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="M41">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="N41">
-        <v>0.71</v>
+        <v>0.89</v>
       </c>
       <c r="O41">
-        <v>0.29</v>
+        <v>0.11</v>
       </c>
       <c r="P41" t="b">
         <v>1</v>
       </c>
       <c r="Q41">
-        <v>2638</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="42" spans="10:17">
       <c r="J42" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="K42">
-        <v>0.00919732441471572</v>
+        <v>0.008630393996247656</v>
       </c>
       <c r="L42">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M42">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="N42">
-        <v>0.92</v>
+        <v>0.74</v>
       </c>
       <c r="O42">
-        <v>0.07999999999999996</v>
+        <v>0.26</v>
       </c>
       <c r="P42" t="b">
         <v>1</v>
       </c>
       <c r="Q42">
-        <v>2370</v>
+        <v>2642</v>
       </c>
     </row>
     <row r="43" spans="10:17">
       <c r="J43" s="1" t="s">
-        <v>33</v>
+        <v>76</v>
       </c>
       <c r="K43">
-        <v>0.00369290573372206</v>
+        <v>0.00794314381270903</v>
       </c>
       <c r="L43">
         <v>19</v>
       </c>
       <c r="M43">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="N43">
-        <v>0.49</v>
+        <v>0.9</v>
       </c>
       <c r="O43">
-        <v>0.51</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="P43" t="b">
         <v>1</v>
       </c>
       <c r="Q43">
-        <v>5126</v>
+        <v>2373</v>
+      </c>
+    </row>
+    <row r="44" spans="10:17">
+      <c r="J44" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K44">
+        <v>0.00482994566311129</v>
+      </c>
+      <c r="L44">
+        <v>24</v>
+      </c>
+      <c r="M44">
+        <v>51</v>
+      </c>
+      <c r="N44">
+        <v>0.47</v>
+      </c>
+      <c r="O44">
+        <v>0.53</v>
+      </c>
+      <c r="P44" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q44">
+        <v>4945</v>
+      </c>
+    </row>
+    <row r="45" spans="10:17">
+      <c r="J45" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K45">
+        <v>0.004479937670432412</v>
+      </c>
+      <c r="L45">
+        <v>23</v>
+      </c>
+      <c r="M45">
+        <v>54</v>
+      </c>
+      <c r="N45">
+        <v>0.43</v>
+      </c>
+      <c r="O45">
+        <v>0.5700000000000001</v>
+      </c>
+      <c r="P45" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q45">
+        <v>5111</v>
       </c>
     </row>
   </sheetData>
